--- a/biology/Botanique/Calibrachoa/Calibrachoa.xlsx
+++ b/biology/Botanique/Calibrachoa/Calibrachoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calibrachoa est un genre de plantes herbacées de la famille des Solanaceae, originaires des régions tropicales d'Amérique du Sud, et notamment du Brésil. On dénombre une vingtaine d'espèces.
 Étymologie : le terme "calibrachoa" a été créé en souvenir du nom d'un botaniste et pharmacien mexicain, Antonio de la Cal y Bracho (1764-1833) qui fut l'élève du botaniste espagnol Vicente Cervantes, le créateur du genre Calibrachoa.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes herbacées pérennes, à tiges ligneuse ou arbrisseau, dotées de poils glanduleux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plantes herbacées pérennes, à tiges ligneuse ou arbrisseau, dotées de poils glanduleux.
 Les feuilles sont alternes sauf les supérieures qui vont par deux. Le limbe est simple et entier.
 Les fleurs sont solitaires, à l'aisselle des feuilles, généralement légèrement zygomorphes. Le calice est campanulé, profondément 5-lobé. La corolle généralement rose, en forme d'entonnoir ou de trompette, 5-lobée, entoure 5 étamines, groupées par deux et une cinquième plus courte, insérées sur le tube de la corolle. L'ovaire est biloculaire.
 Le fruit est une petite capsule, à déhiscence par une fente longitudinale.
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calibrachoa se répartissent en Amérique du Sud et principalement au Brésil.
 </t>
@@ -578,10 +594,12 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Petunia créé par Antoine-Laurent de Jussieu en 1803 comprenait des plantes à n=7 chromosomes, comme le Petunia axillaris, et des plantes à n=9 chromosomes comme Petunia parviflora, non interfertiles. Wijsman[2] divisa le genre en deux nouveaux genres, les plantes à n=7 chromosomes restèrent dans le genre Petunia et celles à n=9 chromosomes furent transférées dans le genre Calibrachoa.
-Les Calibrachoa se différencient des Petunia par quelques traits morphologiques comme indiqué dans le tableau ci-dessous[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Petunia créé par Antoine-Laurent de Jussieu en 1803 comprenait des plantes à n=7 chromosomes, comme le Petunia axillaris, et des plantes à n=9 chromosomes comme Petunia parviflora, non interfertiles. Wijsman divisa le genre en deux nouveaux genres, les plantes à n=7 chromosomes restèrent dans le genre Petunia et celles à n=9 chromosomes furent transférées dans le genre Calibrachoa.
+Les Calibrachoa se différencient des Petunia par quelques traits morphologiques comme indiqué dans le tableau ci-dessous
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Calibrachoa caesia (Sendtn.) Wijsman
 Calibrachoa calycina (Sendtn.) Wijsman
